--- a/R/data/quiz240902_tmp.xlsx
+++ b/R/data/quiz240902_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="1022">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2876,6 +2876,207 @@
   </si>
   <si>
     <t>권호영</t>
+  </si>
+  <si>
+    <t>dbfrhr02@naver.com</t>
+  </si>
+  <si>
+    <t>심건휘</t>
+  </si>
+  <si>
+    <t>solepkinsg@gmail.com</t>
+  </si>
+  <si>
+    <t>박인성</t>
+  </si>
+  <si>
+    <t>park_minkyu@naver.com</t>
+  </si>
+  <si>
+    <t>박민규</t>
+  </si>
+  <si>
+    <t>oepdwrtyy@gmail.com</t>
+  </si>
+  <si>
+    <t>강종현</t>
+  </si>
+  <si>
+    <t>mire030503@gmail.com</t>
+  </si>
+  <si>
+    <t>김원형</t>
+  </si>
+  <si>
+    <t>nwjcq14@gmail.com</t>
+  </si>
+  <si>
+    <t>임미정</t>
+  </si>
+  <si>
+    <t>psw9879@naver.com</t>
+  </si>
+  <si>
+    <t>박상원</t>
+  </si>
+  <si>
+    <t>kjinju0518@naver.com</t>
+  </si>
+  <si>
+    <t>김진주</t>
+  </si>
+  <si>
+    <t>jmmj99@naver.com</t>
+  </si>
+  <si>
+    <t>이지헌</t>
+  </si>
+  <si>
+    <t>bottom0406@gmail.com</t>
+  </si>
+  <si>
+    <t>박문형</t>
+  </si>
+  <si>
+    <t>dkaldmswl05@gmail.com</t>
+  </si>
+  <si>
+    <t>엄은지</t>
+  </si>
+  <si>
+    <t>csm06125@naver.com</t>
+  </si>
+  <si>
+    <t>박근태</t>
+  </si>
+  <si>
+    <t>jhjh1985@naver.com</t>
+  </si>
+  <si>
+    <t>정재현</t>
+  </si>
+  <si>
+    <t>wkdgotqlc@gmail.com</t>
+  </si>
+  <si>
+    <t>장햇빛</t>
+  </si>
+  <si>
+    <t>okroyal1@naver.com</t>
+  </si>
+  <si>
+    <t>오성민</t>
+  </si>
+  <si>
+    <t>corki1234@naver.com</t>
+  </si>
+  <si>
+    <t>윤서웅</t>
+  </si>
+  <si>
+    <t>dabinchoe05@gmail.com</t>
+  </si>
+  <si>
+    <t>최다빈</t>
+  </si>
+  <si>
+    <t>ertyhx3@gmail.com</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>jinhee1082@naver.com</t>
+  </si>
+  <si>
+    <t>박진희</t>
+  </si>
+  <si>
+    <t>jaekyung001203@gmail.com</t>
+  </si>
+  <si>
+    <t>안재경</t>
+  </si>
+  <si>
+    <t>ann12ann1209@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>rlaehdnr999@naver.com</t>
+  </si>
+  <si>
+    <t>김도욱</t>
+  </si>
+  <si>
+    <t>ssjm9652@naver.com</t>
+  </si>
+  <si>
+    <t>소정민</t>
+  </si>
+  <si>
+    <t>dltlgus1119@naver.com</t>
+  </si>
+  <si>
+    <t>이시현</t>
+  </si>
+  <si>
+    <t>jione0831@naver.com</t>
+  </si>
+  <si>
+    <t>윤지원</t>
+  </si>
+  <si>
+    <t>csj450422@gmail.com</t>
+  </si>
+  <si>
+    <t>장승진</t>
+  </si>
+  <si>
+    <t>kter0506@naver.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>thdl6767@naver.com</t>
+  </si>
+  <si>
+    <t>임소이</t>
+  </si>
+  <si>
+    <t>20242925@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김민우</t>
+  </si>
+  <si>
+    <t>guswjd052428@naver.com</t>
+  </si>
+  <si>
+    <t>전현정</t>
+  </si>
+  <si>
+    <t>nyo07@naver.com</t>
+  </si>
+  <si>
+    <t>윤효라</t>
+  </si>
+  <si>
+    <t>jkmy2516@naver.com</t>
+  </si>
+  <si>
+    <t>장석빈</t>
+  </si>
+  <si>
+    <t>20217096@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>ghksltjrl@naver.com</t>
+  </si>
+  <si>
+    <t>이용환</t>
   </si>
 </sst>
 </file>
@@ -16748,6 +16949,1094 @@
         <v>27</v>
       </c>
     </row>
+    <row r="426">
+      <c r="A426" s="2">
+        <v>45542.83036796296</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D426" s="3">
+        <v>2.0212971E7</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I426" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J426" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2">
+        <v>45542.84425439815</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D427" s="3">
+        <v>2.0236615E7</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I427" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J427" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2">
+        <v>45542.8483959838</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D428" s="3">
+        <v>2.0205167E7</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I428" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J428" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2">
+        <v>45542.85398222222</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D429" s="3">
+        <v>2.0241003E7</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H429" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I429" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K429" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2">
+        <v>45542.863830428236</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D430" s="3">
+        <v>2.0222514E7</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H430" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I430" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J430" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2">
+        <v>45542.867648541665</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D431" s="3">
+        <v>2.0216631E7</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="F431" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G431" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H431" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I431" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J431" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2">
+        <v>45542.903423344906</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D432" s="3">
+        <v>2.0235164E7</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I432" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K432" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2">
+        <v>45542.90671582176</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D433" s="3">
+        <v>2.0232937E7</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I433" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K433" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2">
+        <v>45542.91668520833</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D434" s="3">
+        <v>2.024693E7</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H434" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I434" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J434" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2">
+        <v>45542.922016157405</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D435" s="3">
+        <v>2.0242616E7</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I435" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J435" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2">
+        <v>45542.9241537037</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D436" s="3">
+        <v>2.0221059E7</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H436" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I436" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J436" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2">
+        <v>45542.94978822916</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D437" s="3">
+        <v>2.0203321E7</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H437" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I437" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J437" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2">
+        <v>45542.95790824074</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D438" s="3">
+        <v>2.0212754E7</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I438" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K438" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2">
+        <v>45542.966125439816</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D439" s="3">
+        <v>2.0246769E7</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I439" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K439" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2">
+        <v>45542.96730091435</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D440" s="3">
+        <v>2.0241526E7</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I440" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K440" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2">
+        <v>45542.96737222222</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D441" s="3">
+        <v>2.0211523E7</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I441" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J441" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2">
+        <v>45542.969051782406</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D442" s="3">
+        <v>2.024678E7</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H442" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I442" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J442" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2">
+        <v>45542.96944443287</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2.0242607E7</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H443" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I443" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J443" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2">
+        <v>45542.97661056713</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D444" s="3">
+        <v>2.022253E7</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I444" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J444" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2">
+        <v>45542.980419837964</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D445" s="3">
+        <v>2.021323E7</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H445" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I445" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K445" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2">
+        <v>45542.9843159375</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D446" s="3">
+        <v>2.0222933E7</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H446" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I446" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J446" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2">
+        <v>45542.993070185184</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D447" s="3">
+        <v>2.0221007E7</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H447" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I447" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K447" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2">
+        <v>45542.99849539352</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D448" s="3">
+        <v>2.0241047E7</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I448" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K448" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2">
+        <v>45543.000692118054</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D449" s="3">
+        <v>2.0205226E7</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H449" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I449" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K449" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2">
+        <v>45543.00827262731</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2.0246262E7</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I450" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J450" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2">
+        <v>45543.01025207176</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D451" s="3">
+        <v>2.0233637E7</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H451" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I451" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K451" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2">
+        <v>45543.013943680555</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D452" s="3">
+        <v>2.0243813E7</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H452" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I452" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J452" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2">
+        <v>45543.018406296294</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D453" s="3">
+        <v>2.0232745E7</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H453" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I453" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K453" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2">
+        <v>45543.024455844905</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D454" s="3">
+        <v>2.0242925E7</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H454" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I454" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J454" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2">
+        <v>45543.046584270836</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D455" s="3">
+        <v>2.0243029E7</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H455" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I455" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J455" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2">
+        <v>45543.06129864583</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D456" s="3">
+        <v>2.0217087E7</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H456" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I456" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K456" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2">
+        <v>45543.0676016088</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D457" s="3">
+        <v>2.0191084E7</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H457" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I457" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J457" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2">
+        <v>45543.10432844907</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D458" s="3">
+        <v>2.0217096E7</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H458" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I458" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J458" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2">
+        <v>45543.146320960645</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D459" s="3">
+        <v>2.0215212E7</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H459" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I459" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J459" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz240902_tmp.xlsx
+++ b/R/data/quiz240902_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4266" uniqueCount="1170">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3077,6 +3077,450 @@
   </si>
   <si>
     <t>이용환</t>
+  </si>
+  <si>
+    <t>dydwndus1115@naver.com</t>
+  </si>
+  <si>
+    <t>용주연</t>
+  </si>
+  <si>
+    <t>kate7633@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>chiyoon12@gmail.com</t>
+  </si>
+  <si>
+    <t>김치윤</t>
+  </si>
+  <si>
+    <t>lyjo0823@naver.com</t>
+  </si>
+  <si>
+    <t>이연주</t>
+  </si>
+  <si>
+    <t>dct0807@naver.com</t>
+  </si>
+  <si>
+    <t>이정민</t>
+  </si>
+  <si>
+    <t>grace0388@naver.com</t>
+  </si>
+  <si>
+    <t>김하은</t>
+  </si>
+  <si>
+    <t>ryul1128@naver.com</t>
+  </si>
+  <si>
+    <t>김률아</t>
+  </si>
+  <si>
+    <t>jeongeun20050618@gmail.com</t>
+  </si>
+  <si>
+    <t>권정은</t>
+  </si>
+  <si>
+    <t>hsjenny99@gmail.com</t>
+  </si>
+  <si>
+    <t>소푸트웨어학부</t>
+  </si>
+  <si>
+    <t>전소현</t>
+  </si>
+  <si>
+    <t>hanyeong09@naver.com</t>
+  </si>
+  <si>
+    <t>이한영</t>
+  </si>
+  <si>
+    <t>hanca0607@naver.com</t>
+  </si>
+  <si>
+    <t>한채아</t>
+  </si>
+  <si>
+    <t>wnsgud9624@naver.com</t>
+  </si>
+  <si>
+    <t>임준형</t>
+  </si>
+  <si>
+    <t>sk2000tyr@naver.com</t>
+  </si>
+  <si>
+    <t>이지한</t>
+  </si>
+  <si>
+    <t>jhkm7400@gmail.com</t>
+  </si>
+  <si>
+    <t>김유건</t>
+  </si>
+  <si>
+    <t>ab47cd32@gmail.com</t>
+  </si>
+  <si>
+    <t>우로겸</t>
+  </si>
+  <si>
+    <t>p060627@naver.com</t>
+  </si>
+  <si>
+    <t>박찬혁</t>
+  </si>
+  <si>
+    <t>guj2205146@gmail.com</t>
+  </si>
+  <si>
+    <t>강의주</t>
+  </si>
+  <si>
+    <t>jinsugyeom49@gmail.com</t>
+  </si>
+  <si>
+    <t>진수겸</t>
+  </si>
+  <si>
+    <t>khj000818@naver.com</t>
+  </si>
+  <si>
+    <t>강현준</t>
+  </si>
+  <si>
+    <t>hshhsh0774@gmail.com</t>
+  </si>
+  <si>
+    <t>한승호</t>
+  </si>
+  <si>
+    <t>sengyu0805@gmail.com</t>
+  </si>
+  <si>
+    <t>나선아</t>
+  </si>
+  <si>
+    <t>dayae6762@naver.com</t>
+  </si>
+  <si>
+    <t>장다예</t>
+  </si>
+  <si>
+    <t>whalsrl124@naver.com</t>
+  </si>
+  <si>
+    <t>조민기</t>
+  </si>
+  <si>
+    <t>bom031417@naver.com</t>
+  </si>
+  <si>
+    <t>원유영</t>
+  </si>
+  <si>
+    <t>qaz5316qaz@naver.com</t>
+  </si>
+  <si>
+    <t>이동기</t>
+  </si>
+  <si>
+    <t>yssong1919@naver.com</t>
+  </si>
+  <si>
+    <t>송예상</t>
+  </si>
+  <si>
+    <t>mani4262421@naver.com</t>
+  </si>
+  <si>
+    <t>wweufc0913123456@gmail.com</t>
+  </si>
+  <si>
+    <t>지강민</t>
+  </si>
+  <si>
+    <t>mjys9155@gmail.com</t>
+  </si>
+  <si>
+    <t>sht05137@gmail.com</t>
+  </si>
+  <si>
+    <t>류정석</t>
+  </si>
+  <si>
+    <t>syckjjperfect9160@naver.com</t>
+  </si>
+  <si>
+    <t>송현우</t>
+  </si>
+  <si>
+    <t>ilylive@naver.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>lucy37lucy37lucy37@naver.com</t>
+  </si>
+  <si>
+    <t>이은지</t>
+  </si>
+  <si>
+    <t>qortjdus27@naver.com</t>
+  </si>
+  <si>
+    <t>백서연</t>
+  </si>
+  <si>
+    <t>swncelt@naver.com</t>
+  </si>
+  <si>
+    <t>박은서</t>
+  </si>
+  <si>
+    <t>yeongjus6552@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영학과 </t>
+  </si>
+  <si>
+    <t>서영주</t>
+  </si>
+  <si>
+    <t>xx0911ram1@gmail.com</t>
+  </si>
+  <si>
+    <t>정하람</t>
+  </si>
+  <si>
+    <t>132abcd@naver.com</t>
+  </si>
+  <si>
+    <t>박제환</t>
+  </si>
+  <si>
+    <t>soyeong6832@gmail.com</t>
+  </si>
+  <si>
+    <t>지소영</t>
+  </si>
+  <si>
+    <t>tqwquqqi@naver.com</t>
+  </si>
+  <si>
+    <t>강하늘</t>
+  </si>
+  <si>
+    <t>20182346@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이용재</t>
+  </si>
+  <si>
+    <t>sec2524@gmail.com</t>
+  </si>
+  <si>
+    <t>서은찬</t>
+  </si>
+  <si>
+    <t>ystop061012@naver.com</t>
+  </si>
+  <si>
+    <t>손연수</t>
+  </si>
+  <si>
+    <t>kmu2916@naver.com</t>
+  </si>
+  <si>
+    <t>경역학과</t>
+  </si>
+  <si>
+    <t>강민욱</t>
+  </si>
+  <si>
+    <t>kby5432@naver.com</t>
+  </si>
+  <si>
+    <t>윤경빈</t>
+  </si>
+  <si>
+    <t>kya01095509223@gmail.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>김윤아</t>
+  </si>
+  <si>
+    <t>tidlswjddms@naver.com</t>
+  </si>
+  <si>
+    <t>임정은</t>
+  </si>
+  <si>
+    <t>leeaumin1@naver.com</t>
+  </si>
+  <si>
+    <t>이수민</t>
+  </si>
+  <si>
+    <t>sujdiamond@gmail.com</t>
+  </si>
+  <si>
+    <t>심유진</t>
+  </si>
+  <si>
+    <t>giyongi37@gmail.com</t>
+  </si>
+  <si>
+    <t>이기용</t>
+  </si>
+  <si>
+    <t>qwe92517@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>yu_min1220@naver.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>황유민</t>
+  </si>
+  <si>
+    <t>jm050307@naver.com</t>
+  </si>
+  <si>
+    <t>전지민</t>
+  </si>
+  <si>
+    <t>eseses0827@naver.com</t>
+  </si>
+  <si>
+    <t>강은서</t>
+  </si>
+  <si>
+    <t>suji032091@naver.com</t>
+  </si>
+  <si>
+    <t>dudwndi09@naver.com</t>
+  </si>
+  <si>
+    <t>권영주</t>
+  </si>
+  <si>
+    <t>tomas313@naver.com</t>
+  </si>
+  <si>
+    <t>라태민</t>
+  </si>
+  <si>
+    <t>pumo22@naver.com</t>
+  </si>
+  <si>
+    <t>wjswlals789@naver.com</t>
+  </si>
+  <si>
+    <t>a01051265769@gmail.com</t>
+  </si>
+  <si>
+    <t>안현영</t>
+  </si>
+  <si>
+    <t>youngold057@gmail.com</t>
+  </si>
+  <si>
+    <t>윤태영</t>
+  </si>
+  <si>
+    <t>asidgf0916@naver.com</t>
+  </si>
+  <si>
+    <t>진희경</t>
+  </si>
+  <si>
+    <t>ian5791@naver.com</t>
+  </si>
+  <si>
+    <t>박수현</t>
+  </si>
+  <si>
+    <t>ekzkdi12@naver.com</t>
+  </si>
+  <si>
+    <t>박정민</t>
+  </si>
+  <si>
+    <t>jiminn101777@gmail.com</t>
+  </si>
+  <si>
+    <t>권지민</t>
+  </si>
+  <si>
+    <t>tigerhaha1@naver.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>dncks5343@naver.com</t>
+  </si>
+  <si>
+    <t>장우찬</t>
+  </si>
+  <si>
+    <t>happyfish123@naver.com</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>leedongyoung797@gmail.com</t>
+  </si>
+  <si>
+    <t>이동영</t>
+  </si>
+  <si>
+    <t>solar08230@naver.com</t>
+  </si>
+  <si>
+    <t>안다빈</t>
+  </si>
+  <si>
+    <t>ncu11069@naver.com</t>
+  </si>
+  <si>
+    <t>이규민</t>
+  </si>
+  <si>
+    <t>jign1106@naver.com</t>
+  </si>
+  <si>
+    <t>지은총</t>
+  </si>
+  <si>
+    <t>yeona0926@gmail.com</t>
+  </si>
+  <si>
+    <t>강연아</t>
+  </si>
+  <si>
+    <t>misunhong0707@gmail.com</t>
+  </si>
+  <si>
+    <t>홍미선</t>
   </si>
 </sst>
 </file>
@@ -18037,6 +18481,2374 @@
         <v>31</v>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" s="2">
+        <v>45543.42713170139</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D460" s="3">
+        <v>2.0243723E7</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H460" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I460" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K460" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2">
+        <v>45543.44534710648</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D461" s="3">
+        <v>2.0242632E7</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H461" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I461" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J461" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2">
+        <v>45543.458008483794</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D462" s="3">
+        <v>2.0232938E7</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H462" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I462" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J462" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2">
+        <v>45543.48698526621</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D463" s="3">
+        <v>2.0225218E7</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H463" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I463" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K463" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2">
+        <v>45543.505834641204</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D464" s="3">
+        <v>2.0203019E7</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H464" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I464" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K464" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2">
+        <v>45543.50694662037</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D465" s="3">
+        <v>2.0222715E7</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H465" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I465" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K465" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2">
+        <v>45543.507190868055</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D466" s="3">
+        <v>2.0243806E7</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H466" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I466" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J466" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2">
+        <v>45543.52254457176</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D467" s="3">
+        <v>2.0243703E7</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F467" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H467" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I467" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K467" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2">
+        <v>45543.52356894676</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D468" s="3">
+        <v>2.0245246E7</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H468" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I468" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J468" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2">
+        <v>45543.524890243054</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D469" s="3">
+        <v>2.0203423E7</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F469" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H469" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I469" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K469" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2">
+        <v>45543.55186850694</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D470" s="3">
+        <v>2.0202365E7</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H470" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I470" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K470" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2">
+        <v>45543.564051967594</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D471" s="3">
+        <v>2.018109E7</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F471" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H471" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I471" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J471" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2">
+        <v>45543.56804559028</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D472" s="3">
+        <v>2.0227073E7</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F472" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H472" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I472" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K472" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2">
+        <v>45543.568915138894</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D473" s="3">
+        <v>2.0242932E7</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F473" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H473" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I473" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K473" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2">
+        <v>45543.582016875</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D474" s="3">
+        <v>2.0242128E7</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F474" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H474" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I474" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K474" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2">
+        <v>45543.582158854166</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D475" s="3">
+        <v>2.0245175E7</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F475" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H475" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I475" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J475" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2">
+        <v>45543.584800763885</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D476" s="3">
+        <v>2.0242101E7</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F476" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H476" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I476" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K476" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2">
+        <v>45543.585250902775</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D477" s="3">
+        <v>2.024304E7</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F477" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H477" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I477" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K477" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2">
+        <v>45543.601327083335</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D478" s="3">
+        <v>2.0204103E7</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F478" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H478" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I478" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J478" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2">
+        <v>45543.60382226852</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D479" s="3">
+        <v>2.0196532E7</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F479" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H479" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I479" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J479" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2">
+        <v>45543.604526875</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D480" s="3">
+        <v>2.0245152E7</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F480" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H480" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I480" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K480" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2">
+        <v>45543.63993804398</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D481" s="3">
+        <v>2.0241081E7</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F481" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G481" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H481" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I481" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K481" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2">
+        <v>45543.64856219907</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D482" s="3">
+        <v>2.0192986E7</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F482" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H482" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I482" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K482" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2">
+        <v>45543.66378173611</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D483" s="3">
+        <v>2.0207089E7</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H483" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I483" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J483" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2">
+        <v>45543.67099240741</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D484" s="3">
+        <v>2.0192936E7</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H484" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I484" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K484" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2">
+        <v>45543.68251517361</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D485" s="3">
+        <v>2.0227078E7</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H485" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I485" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J485" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2">
+        <v>45543.700415960644</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D486" s="3">
+        <v>2.0223022E7</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H486" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I486" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J486" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2">
+        <v>45543.701031979166</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D487" s="3">
+        <v>2.0231539E7</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H487" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I487" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K487" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2">
+        <v>45543.71027243056</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D488" s="3">
+        <v>2.0241044E7</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H488" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I488" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K488" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2">
+        <v>45543.71038690972</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D489" s="3">
+        <v>2.0195285E7</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H489" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I489" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K489" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2">
+        <v>45543.71360797454</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D490" s="3">
+        <v>2.0202335E7</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H490" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I490" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K490" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2">
+        <v>45543.71375871528</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D491" s="3">
+        <v>2.0231621E7</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H491" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I491" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J491" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2">
+        <v>45543.71378392361</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D492" s="3">
+        <v>2.022301E7</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H492" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I492" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K492" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2">
+        <v>45543.71481063658</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D493" s="3">
+        <v>2.0242971E7</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H493" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I493" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J493" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2">
+        <v>45543.71531305555</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D494" s="3">
+        <v>2.0192876E7</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H494" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I494" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K494" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2">
+        <v>45543.71754402778</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D495" s="3">
+        <v>2.0242973E7</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H495" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I495" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J495" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2">
+        <v>45543.71823752315</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D496" s="3">
+        <v>2.0246422E7</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H496" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I496" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J496" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2">
+        <v>45543.718317708335</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D497" s="3">
+        <v>2.0201046E7</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H497" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I497" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J497" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2">
+        <v>45543.722049398144</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D498" s="3">
+        <v>2.0227111E7</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H498" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I498" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K498" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2">
+        <v>45543.73222734954</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D499" s="3">
+        <v>2.0222905E7</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H499" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I499" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K499" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2">
+        <v>45543.737043194444</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D500" s="3">
+        <v>2.0182346E7</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H500" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I500" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K500" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2">
+        <v>45543.739300625</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D501" s="3">
+        <v>2.0245183E7</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H501" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I501" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J501" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2">
+        <v>45543.74130512732</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D502" s="3">
+        <v>2.0246628E7</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H502" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I502" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K502" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2">
+        <v>45543.74341116898</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D503" s="3">
+        <v>2.0222902E7</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G503" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H503" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I503" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K503" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2">
+        <v>45543.784226180556</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D504" s="3">
+        <v>2.0192737E7</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H504" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I504" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K504" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2">
+        <v>45543.78677266203</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D505" s="3">
+        <v>2.0246224E7</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H505" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I505" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J505" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2">
+        <v>45543.79322763889</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D506" s="3">
+        <v>2.020524E7</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H506" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I506" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K506" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2">
+        <v>45543.80106837963</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D507" s="3">
+        <v>2.0243E7</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F507" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G507" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H507" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I507" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K507" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2">
+        <v>45543.80173856481</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D508" s="3">
+        <v>2.0243627E7</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F508" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H508" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I508" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K508" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2">
+        <v>45543.807581712965</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D509" s="3">
+        <v>2.0215199E7</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F509" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G509" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H509" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I509" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K509" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2">
+        <v>45543.81444579861</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D510" s="3">
+        <v>2.0246271E7</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F510" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G510" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H510" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I510" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J510" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2">
+        <v>45543.829387488426</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D511" s="3">
+        <v>2.0243368E7</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F511" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G511" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H511" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I511" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J511" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2">
+        <v>45543.833221249995</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D512" s="3">
+        <v>2.024325E7</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H512" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I512" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K512" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2">
+        <v>45543.83644130787</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D513" s="3">
+        <v>2.0241503E7</v>
+      </c>
+      <c r="E513" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F513" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G513" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H513" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I513" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K513" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2">
+        <v>45543.85170170139</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D514" s="3">
+        <v>2.0227157E7</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G514" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H514" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I514" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K514" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2">
+        <v>45543.864422847226</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D515" s="3">
+        <v>2.0212603E7</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F515" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G515" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H515" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I515" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K515" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2">
+        <v>45543.86617289352</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D516" s="3">
+        <v>2.0214116E7</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G516" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H516" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I516" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J516" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2">
+        <v>45543.87462232639</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D517" s="3">
+        <v>2.0232527E7</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G517" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H517" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I517" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J517" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2">
+        <v>45543.87617765046</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D518" s="3">
+        <v>2.0213731E7</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F518" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G518" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H518" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I518" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K518" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2">
+        <v>45543.88515472222</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D519" s="3">
+        <v>2.0243414E7</v>
+      </c>
+      <c r="E519" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H519" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I519" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K519" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2">
+        <v>45543.88708407407</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D520" s="3">
+        <v>2.0242336E7</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F520" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G520" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H520" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I520" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K520" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2">
+        <v>45543.891689745375</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D521" s="3">
+        <v>2.0242353E7</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G521" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H521" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I521" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K521" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2">
+        <v>45543.898588993055</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D522" s="3">
+        <v>2.024152E7</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G522" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H522" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I522" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J522" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2">
+        <v>45543.9080852662</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D523" s="3">
+        <v>2.024296E7</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H523" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I523" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K523" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2">
+        <v>45543.91152332176</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D524" s="3">
+        <v>2.0242306E7</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G524" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H524" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I524" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K524" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2">
+        <v>45543.916113506944</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D525" s="3">
+        <v>2.0216716E7</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H525" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I525" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J525" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2">
+        <v>45543.933706724536</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D526" s="3">
+        <v>2.02429373E8</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F526" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G526" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H526" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I526" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K526" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2">
+        <v>45543.933943599535</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D527" s="3">
+        <v>2.0242919E7</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F527" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H527" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I527" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K527" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2">
+        <v>45543.93575834491</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D528" s="3">
+        <v>2.0243934E7</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F528" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H528" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I528" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K528" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2">
+        <v>45543.94343267361</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D529" s="3">
+        <v>2.0221717E7</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H529" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I529" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J529" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2">
+        <v>45543.94777288195</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D530" s="3">
+        <v>2.0231622E7</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H530" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I530" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J530" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2">
+        <v>45543.95471428241</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D531" s="3">
+        <v>2.0246289E7</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H531" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I531" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K531" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2">
+        <v>45543.96502265046</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D532" s="3">
+        <v>2.0246203E7</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H532" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I532" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J532" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2">
+        <v>45543.97326983797</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D533" s="3">
+        <v>2.024694E7</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H533" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I533" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K533" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz240902_tmp.xlsx
+++ b/R/data/quiz240902_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4266" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="1212">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3521,6 +3521,132 @@
   </si>
   <si>
     <t>홍미선</t>
+  </si>
+  <si>
+    <t>wndus6604@gmail.com</t>
+  </si>
+  <si>
+    <t>남주연</t>
+  </si>
+  <si>
+    <t>ism050204@naver.com</t>
+  </si>
+  <si>
+    <t>leejhzzang2005@naver.com</t>
+  </si>
+  <si>
+    <t>이주현</t>
+  </si>
+  <si>
+    <t>johyeram@gmail.com</t>
+  </si>
+  <si>
+    <t>조혜람</t>
+  </si>
+  <si>
+    <t>qpal0737k@gmail.com</t>
+  </si>
+  <si>
+    <t>법</t>
+  </si>
+  <si>
+    <t>유현이</t>
+  </si>
+  <si>
+    <t>whrhdwn2003@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>slionrain0819@naver.com</t>
+  </si>
+  <si>
+    <t>정의환</t>
+  </si>
+  <si>
+    <t>smarthulk0318@naver.com</t>
+  </si>
+  <si>
+    <t>조성민</t>
+  </si>
+  <si>
+    <t>ac3512@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학 전공</t>
+  </si>
+  <si>
+    <t>김태근</t>
+  </si>
+  <si>
+    <t>a35142191@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤재</t>
+  </si>
+  <si>
+    <t>aldidhd1112@naver.com</t>
+  </si>
+  <si>
+    <t>권효서</t>
+  </si>
+  <si>
+    <t>ehdus1113kim@naver.com</t>
+  </si>
+  <si>
+    <t>hijgc8282@naver.com</t>
+  </si>
+  <si>
+    <t>윤장근</t>
+  </si>
+  <si>
+    <t>jsh050906@naver.com</t>
+  </si>
+  <si>
+    <t>경영대학(금융재무학과)</t>
+  </si>
+  <si>
+    <t>정송희</t>
+  </si>
+  <si>
+    <t>wtbaa33@naver.com</t>
+  </si>
+  <si>
+    <t>김민교</t>
+  </si>
+  <si>
+    <t>eomjh2005@naver.com</t>
+  </si>
+  <si>
+    <t>엄지희</t>
+  </si>
+  <si>
+    <t>wlgus4770752@naver.com</t>
+  </si>
+  <si>
+    <t>의예과</t>
+  </si>
+  <si>
+    <t>김지현</t>
+  </si>
+  <si>
+    <t>jeongminyoung13@gmail.com</t>
+  </si>
+  <si>
+    <t>정민영</t>
+  </si>
+  <si>
+    <t>roytoy151827@gmail.com</t>
+  </si>
+  <si>
+    <t>김용한</t>
+  </si>
+  <si>
+    <t>sohn1118@naver.com</t>
+  </si>
+  <si>
+    <t>손정빈</t>
   </si>
 </sst>
 </file>
@@ -20849,6 +20975,678 @@
         <v>35</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" s="2">
+        <v>45543.97494023148</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D534" s="3">
+        <v>2.0223611E7</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H534" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I534" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J534" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2">
+        <v>45543.97850627315</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D535" s="3">
+        <v>2.0243001E7</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H535" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I535" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K535" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2">
+        <v>45543.97866180555</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D536" s="3">
+        <v>2.0242342E7</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H536" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I536" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K536" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2">
+        <v>45543.9894122338</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D537" s="3">
+        <v>2.024412E7</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H537" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I537" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K537" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2">
+        <v>45543.99030168982</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D538" s="3">
+        <v>2.0227022E7</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H538" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I538" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J538" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2">
+        <v>45543.990656574075</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D539" s="3">
+        <v>2.0232734E7</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H539" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I539" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K539" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2">
+        <v>45543.99072828704</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D540" s="3">
+        <v>2.023275E7</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H540" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I540" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K540" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2">
+        <v>45543.99326236111</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D541" s="3">
+        <v>2.0243951E7</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H541" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I541" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K541" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2">
+        <v>45543.99349842593</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D542" s="3">
+        <v>2.0241095E7</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F542" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G542" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H542" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I542" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J542" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2">
+        <v>45543.993882696755</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D543" s="3">
+        <v>2.0216609E7</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F543" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H543" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I543" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K543" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2">
+        <v>45543.993891192134</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D544" s="3">
+        <v>2.0243241E7</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F544" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H544" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I544" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J544" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2">
+        <v>45543.998184895834</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D545" s="3">
+        <v>2.0172808E7</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F545" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G545" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H545" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I545" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J545" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2">
+        <v>45543.99910326389</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D546" s="3">
+        <v>2.0232705E7</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F546" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H546" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I546" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K546" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2">
+        <v>45544.00251679398</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D547" s="3">
+        <v>2.019256E7</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F547" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G547" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H547" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I547" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J547" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2">
+        <v>45544.00517903935</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D548" s="3">
+        <v>2.0243032E7</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F548" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H548" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I548" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K548" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2">
+        <v>45544.006450891204</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D549" s="3">
+        <v>2.0241605E7</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F549" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H549" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I549" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K549" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2">
+        <v>45544.00681368056</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D550" s="3">
+        <v>2.0243825E7</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F550" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H550" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I550" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J550" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2">
+        <v>45544.032843125</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D551" s="3">
+        <v>2.0236121E7</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F551" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H551" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I551" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K551" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2">
+        <v>45544.04743868056</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D552" s="3">
+        <v>2.0246281E7</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F552" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H552" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I552" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J552" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2">
+        <v>45544.12762458333</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D553" s="3">
+        <v>2.0202927E7</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F553" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H553" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I553" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J553" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2">
+        <v>45544.189271145835</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D554" s="3">
+        <v>2.0223519E7</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F554" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H554" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I554" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J554" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz240902_tmp.xlsx
+++ b/R/data/quiz240902_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="1270">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3647,6 +3647,180 @@
   </si>
   <si>
     <t>손정빈</t>
+  </si>
+  <si>
+    <t>haeunlife@naver.com</t>
+  </si>
+  <si>
+    <t>오하은</t>
+  </si>
+  <si>
+    <t>0214lily@naver.com</t>
+  </si>
+  <si>
+    <t>김가희</t>
+  </si>
+  <si>
+    <t>nurasun050718@naver.com</t>
+  </si>
+  <si>
+    <t>이주연</t>
+  </si>
+  <si>
+    <t>woosm050530@gmail.com</t>
+  </si>
+  <si>
+    <t>우수민</t>
+  </si>
+  <si>
+    <t>watero1o2@naver.com</t>
+  </si>
+  <si>
+    <t>남궁수</t>
+  </si>
+  <si>
+    <t>wjdyn2445@gmail.com</t>
+  </si>
+  <si>
+    <t>이정수</t>
+  </si>
+  <si>
+    <t>seoeunwkd@gmail.com</t>
+  </si>
+  <si>
+    <t>정서은</t>
+  </si>
+  <si>
+    <t>hhy062700@naver.com</t>
+  </si>
+  <si>
+    <t>황희영</t>
+  </si>
+  <si>
+    <t>csqwe2@naver.com</t>
+  </si>
+  <si>
+    <t>장재호</t>
+  </si>
+  <si>
+    <t>applehanul@naver.com</t>
+  </si>
+  <si>
+    <t>신하늘</t>
+  </si>
+  <si>
+    <t>taehwankim05@gmail.com</t>
+  </si>
+  <si>
+    <t>김태환</t>
+  </si>
+  <si>
+    <t>leeyelim0320@gmail.com</t>
+  </si>
+  <si>
+    <t>hchceon27@gmail.com</t>
+  </si>
+  <si>
+    <t>천하윤</t>
+  </si>
+  <si>
+    <t>scjscj913@naver.con</t>
+  </si>
+  <si>
+    <t>최수정</t>
+  </si>
+  <si>
+    <t>sangim04113@naver.com</t>
+  </si>
+  <si>
+    <t>용상임</t>
+  </si>
+  <si>
+    <t>hug60600@gmail.com</t>
+  </si>
+  <si>
+    <t>황의건</t>
+  </si>
+  <si>
+    <t>pugagi77@gmail.com</t>
+  </si>
+  <si>
+    <t>홍성화</t>
+  </si>
+  <si>
+    <t>asrud8755@naver.com</t>
+  </si>
+  <si>
+    <t>yohihong@gmail.com</t>
+  </si>
+  <si>
+    <t>민홍기</t>
+  </si>
+  <si>
+    <t>sdw20050421@gmail.com</t>
+  </si>
+  <si>
+    <t>송도원</t>
+  </si>
+  <si>
+    <t>schoe357@gmail.com</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>seungye04@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>정승예</t>
+  </si>
+  <si>
+    <t>hyu05145@naver.com</t>
+  </si>
+  <si>
+    <t>정서진</t>
+  </si>
+  <si>
+    <t>phc5120@naver.com</t>
+  </si>
+  <si>
+    <t>박희철</t>
+  </si>
+  <si>
+    <t>yeon4262@naver.com</t>
+  </si>
+  <si>
+    <t>신수연</t>
+  </si>
+  <si>
+    <t>ade1125@naver.com</t>
+  </si>
+  <si>
+    <t>안다은</t>
+  </si>
+  <si>
+    <t>lsarang1311@gmail.com</t>
+  </si>
+  <si>
+    <t>이사랑</t>
+  </si>
+  <si>
+    <t>s707876@gmail.com</t>
+  </si>
+  <si>
+    <t>한채민</t>
+  </si>
+  <si>
+    <t>rladud30601@naver.com</t>
+  </si>
+  <si>
+    <t>김 영</t>
+  </si>
+  <si>
+    <t>minjeongkim329@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -21647,6 +21821,966 @@
         <v>102</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" s="2">
+        <v>45544.40739141204</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D555" s="3">
+        <v>2.0242624E7</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F555" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H555" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I555" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J555" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2">
+        <v>45544.44379236111</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D556" s="3">
+        <v>2.0214104E7</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F556" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H556" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I556" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J556" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2">
+        <v>45544.46864814815</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D557" s="3">
+        <v>2.0243636E7</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H557" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I557" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J557" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2">
+        <v>45544.468761157405</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D558" s="3">
+        <v>2.024363E7</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F558" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H558" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I558" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K558" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2">
+        <v>45544.48770819444</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D559" s="3">
+        <v>2.024371E7</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F559" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H559" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I559" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K559" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2">
+        <v>45544.52802327546</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D560" s="3">
+        <v>2.0227103E7</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F560" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G560" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H560" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I560" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K560" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2">
+        <v>45544.54753813657</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D561" s="3">
+        <v>2.0243426E7</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F561" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H561" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I561" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J561" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2">
+        <v>45544.570583877314</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D562" s="3">
+        <v>2.0243971E7</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F562" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H562" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I562" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J562" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2">
+        <v>45544.596548738424</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D563" s="3">
+        <v>2.0196638E7</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F563" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G563" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H563" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I563" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K563" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2">
+        <v>45544.65294587963</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D564" s="3">
+        <v>2.0233412E7</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F564" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H564" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I564" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J564" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2">
+        <v>45544.665426458334</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D565" s="3">
+        <v>2.0242411E7</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F565" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H565" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I565" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J565" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2">
+        <v>45544.673253483794</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D566" s="3">
+        <v>2.0193633E7</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F566" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H566" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I566" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J566" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2">
+        <v>45544.68914962963</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D567" s="3">
+        <v>2.0246293E7</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F567" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H567" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I567" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K567" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2">
+        <v>45544.69809381945</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D568" s="3">
+        <v>2.021718E7</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H568" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I568" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K568" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2">
+        <v>45544.70726393518</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D569" s="3">
+        <v>2.0235209E7</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F569" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G569" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H569" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I569" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K569" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2">
+        <v>45544.71928841435</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D570" s="3">
+        <v>2.0243065E7</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F570" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G570" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H570" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I570" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K570" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2">
+        <v>45544.72662325231</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D571" s="3">
+        <v>2.0223739E7</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F571" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G571" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H571" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I571" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K571" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2">
+        <v>45544.73441585648</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D572" s="3">
+        <v>2.0222606E7</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F572" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G572" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H572" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I572" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J572" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2">
+        <v>45544.744352511574</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D573" s="3">
+        <v>2.0245161E7</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F573" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H573" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I573" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K573" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2">
+        <v>45544.765612557865</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D574" s="3">
+        <v>2.0242418E7</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F574" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G574" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H574" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I574" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J574" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2">
+        <v>45544.774601770834</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D575" s="3">
+        <v>2.0246782E7</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F575" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H575" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I575" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J575" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2">
+        <v>45544.782659178236</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D576" s="3">
+        <v>2.0233846E7</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F576" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H576" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I576" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K576" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2">
+        <v>45544.79250090278</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D577" s="3">
+        <v>2.0172433E7</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F577" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H577" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I577" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K577" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2">
+        <v>45544.79745587963</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D578" s="3">
+        <v>2.0183824E7</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F578" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G578" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H578" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I578" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J578" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2">
+        <v>45544.86142784722</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D579" s="3">
+        <v>2.0223325E7</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F579" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H579" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I579" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K579" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2">
+        <v>45544.868685243055</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D580" s="3">
+        <v>2.0232548E7</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F580" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G580" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H580" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I580" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K580" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2">
+        <v>45544.88685846065</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D581" s="3">
+        <v>2.0242998E7</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F581" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G581" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H581" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I581" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K581" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2">
+        <v>45544.88902997685</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D582" s="3">
+        <v>2.0242241E7</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F582" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G582" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H582" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I582" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J582" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2">
+        <v>45544.91877491898</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D583" s="3">
+        <v>2.0202925E7</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F583" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G583" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H583" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I583" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J583" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2">
+        <v>45544.927519212964</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D584" s="3">
+        <v>2.0246218E7</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F584" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G584" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H584" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I584" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J584" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz240902_tmp.xlsx
+++ b/R/data/quiz240902_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5321" uniqueCount="1433">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3821,6 +3821,495 @@
   </si>
   <si>
     <t>minjeongkim329@gmail.com</t>
+  </si>
+  <si>
+    <t>minwl19@naver.com</t>
+  </si>
+  <si>
+    <t>조민지</t>
+  </si>
+  <si>
+    <t>ywj0423@gmail.com</t>
+  </si>
+  <si>
+    <t>장예원</t>
+  </si>
+  <si>
+    <t>jyl06070@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합학과</t>
+  </si>
+  <si>
+    <t>장유리</t>
+  </si>
+  <si>
+    <t>sumine0601@naver.com</t>
+  </si>
+  <si>
+    <t>장수민</t>
+  </si>
+  <si>
+    <t>whovian2@naver.com</t>
+  </si>
+  <si>
+    <t>이새한</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>kym050308@gmail.com</t>
+  </si>
+  <si>
+    <t>김영민</t>
+  </si>
+  <si>
+    <t>chsmdfur123@naver.com</t>
+  </si>
+  <si>
+    <t>이한얼</t>
+  </si>
+  <si>
+    <t>in3019@gmail.com</t>
+  </si>
+  <si>
+    <t>사회</t>
+  </si>
+  <si>
+    <t>이승윤</t>
+  </si>
+  <si>
+    <t>dngud4@naver.com</t>
+  </si>
+  <si>
+    <t>이우형</t>
+  </si>
+  <si>
+    <t>kjh54088@gmail.com</t>
+  </si>
+  <si>
+    <t>김재희</t>
+  </si>
+  <si>
+    <t>lg01022928122@gmail.com</t>
+  </si>
+  <si>
+    <t>권주용</t>
+  </si>
+  <si>
+    <t>kimguswls6685@nave.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>tommy21940@gmail.com</t>
+  </si>
+  <si>
+    <t>양민혁</t>
+  </si>
+  <si>
+    <t>dhpark25678@naver.com</t>
+  </si>
+  <si>
+    <t>박도현</t>
+  </si>
+  <si>
+    <t>juna324a324@naver.com</t>
+  </si>
+  <si>
+    <t>정준우</t>
+  </si>
+  <si>
+    <t>kentoku0901@naver.com</t>
+  </si>
+  <si>
+    <t>김헌덕</t>
+  </si>
+  <si>
+    <t>chanwoo0807@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>김찬우</t>
+  </si>
+  <si>
+    <t>dldpwls5245@naver.com</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>kdk3265@naver.com</t>
+  </si>
+  <si>
+    <t>강은비</t>
+  </si>
+  <si>
+    <t>seohyemin2003@naver.com</t>
+  </si>
+  <si>
+    <t>서혜민</t>
+  </si>
+  <si>
+    <t>leecm051202@gmail.com</t>
+  </si>
+  <si>
+    <t>이채민</t>
+  </si>
+  <si>
+    <t>hshljy7@gmail.com</t>
+  </si>
+  <si>
+    <t>황성훈</t>
+  </si>
+  <si>
+    <t>7dhw010@gmail.com</t>
+  </si>
+  <si>
+    <t>동형원</t>
+  </si>
+  <si>
+    <t>dltmdwo0301@gmail.com</t>
+  </si>
+  <si>
+    <t>이승재</t>
+  </si>
+  <si>
+    <t>taewon16@naver.com</t>
+  </si>
+  <si>
+    <t>류태원</t>
+  </si>
+  <si>
+    <t>chaecjb@naver.com</t>
+  </si>
+  <si>
+    <t>채희수</t>
+  </si>
+  <si>
+    <t>5tmddk@naver.com</t>
+  </si>
+  <si>
+    <t>최승아</t>
+  </si>
+  <si>
+    <t>fghvbn456123@naver.com</t>
+  </si>
+  <si>
+    <t>채동엽</t>
+  </si>
+  <si>
+    <t>nickjjang7@naver.com</t>
+  </si>
+  <si>
+    <t>옥석현</t>
+  </si>
+  <si>
+    <t>ydy7495@naver.com</t>
+  </si>
+  <si>
+    <t>윤다연</t>
+  </si>
+  <si>
+    <t>bsgtopriner0@gmail.com</t>
+  </si>
+  <si>
+    <t>최윤혁</t>
+  </si>
+  <si>
+    <t>2468pp@naver.com</t>
+  </si>
+  <si>
+    <t>박성빈</t>
+  </si>
+  <si>
+    <t>soomin0282@gmail.com</t>
+  </si>
+  <si>
+    <t>fred0203@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학전공</t>
+  </si>
+  <si>
+    <t>이강준</t>
+  </si>
+  <si>
+    <t>a22234781@gmail.com</t>
+  </si>
+  <si>
+    <t>tlsh1282@naver.com</t>
+  </si>
+  <si>
+    <t>원세한</t>
+  </si>
+  <si>
+    <t>silpy2000@icloud.com</t>
+  </si>
+  <si>
+    <t>이윤건</t>
+  </si>
+  <si>
+    <t>qotnqls1126@naver.com</t>
+  </si>
+  <si>
+    <t>배수빈</t>
+  </si>
+  <si>
+    <t>chlwnstn777@naver.com</t>
+  </si>
+  <si>
+    <t>최준수</t>
+  </si>
+  <si>
+    <t>kimeunji0512@naver.com</t>
+  </si>
+  <si>
+    <t>김은지</t>
+  </si>
+  <si>
+    <t>orientfun@gmail.com</t>
+  </si>
+  <si>
+    <t>이동화</t>
+  </si>
+  <si>
+    <t>hsbg1118@gmail.com</t>
+  </si>
+  <si>
+    <t>전희성</t>
+  </si>
+  <si>
+    <t>vldzmgha0609@naver.com</t>
+  </si>
+  <si>
+    <t>김지수</t>
+  </si>
+  <si>
+    <t>jinsol.oh84@gmail.com</t>
+  </si>
+  <si>
+    <t>오진솔</t>
+  </si>
+  <si>
+    <t>oh4559@gmail.com</t>
+  </si>
+  <si>
+    <t>권오현</t>
+  </si>
+  <si>
+    <t>kgh1321gaga@naver.com</t>
+  </si>
+  <si>
+    <t>simyenho8562@gmail.com</t>
+  </si>
+  <si>
+    <t>심연호</t>
+  </si>
+  <si>
+    <t>tjwjddn1130@naver.com</t>
+  </si>
+  <si>
+    <t>서정우</t>
+  </si>
+  <si>
+    <t>gusquddus20@naver.com</t>
+  </si>
+  <si>
+    <t>현병연</t>
+  </si>
+  <si>
+    <t>kylebusy@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠하과</t>
+  </si>
+  <si>
+    <t>이동훈</t>
+  </si>
+  <si>
+    <t>krdevmon@gmail.com</t>
+  </si>
+  <si>
+    <t>안봉근</t>
+  </si>
+  <si>
+    <t>shinsohee0713@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어컨텐츠학과</t>
+  </si>
+  <si>
+    <t>신소희</t>
+  </si>
+  <si>
+    <t>eunjin6604__@naver.com</t>
+  </si>
+  <si>
+    <t>남은진</t>
+  </si>
+  <si>
+    <t>jessica2794@naver.com</t>
+  </si>
+  <si>
+    <t>권유정</t>
+  </si>
+  <si>
+    <t>ella2005710@gmail.com</t>
+  </si>
+  <si>
+    <t>김송이</t>
+  </si>
+  <si>
+    <t>jw010705@naver.com</t>
+  </si>
+  <si>
+    <t>유정우</t>
+  </si>
+  <si>
+    <t>parkjinseo23@naver.com</t>
+  </si>
+  <si>
+    <t>krcar1002@gmail.com</t>
+  </si>
+  <si>
+    <t>김재호</t>
+  </si>
+  <si>
+    <t>creeper_a@naver.com</t>
+  </si>
+  <si>
+    <t>최대현</t>
+  </si>
+  <si>
+    <t>tonykim0703@gmail.com</t>
+  </si>
+  <si>
+    <t>김주엽</t>
+  </si>
+  <si>
+    <t>marlboroe53@naver.com</t>
+  </si>
+  <si>
+    <t>kmg0187@naver.com</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>minsung5342@naver.com</t>
+  </si>
+  <si>
+    <t>tlsdmaco@gmail.com</t>
+  </si>
+  <si>
+    <t>신은채</t>
+  </si>
+  <si>
+    <t>haeyaxx@naver.com</t>
+  </si>
+  <si>
+    <t>차지혜</t>
+  </si>
+  <si>
+    <t>xhddlfqnxkr@naver.com</t>
+  </si>
+  <si>
+    <t>김보경</t>
+  </si>
+  <si>
+    <t>yoonsolmin@naver.com</t>
+  </si>
+  <si>
+    <t>윤솔민</t>
+  </si>
+  <si>
+    <t>junseok5310@naver.com</t>
+  </si>
+  <si>
+    <t>오준석</t>
+  </si>
+  <si>
+    <t>smainas20@naver.com</t>
+  </si>
+  <si>
+    <t>scott1234698@naver.com</t>
+  </si>
+  <si>
+    <t>우성진</t>
+  </si>
+  <si>
+    <t>dlaehdghks123@gmail.com</t>
+  </si>
+  <si>
+    <t>임동환</t>
+  </si>
+  <si>
+    <t>rhoy3156@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>노원철</t>
+  </si>
+  <si>
+    <t>sjhaa303028@naver.com</t>
+  </si>
+  <si>
+    <t>신중현</t>
+  </si>
+  <si>
+    <t>pintang@naver.com</t>
+  </si>
+  <si>
+    <t>당빈</t>
+  </si>
+  <si>
+    <t>dong3995@gmail.com</t>
+  </si>
+  <si>
+    <t>조정훈</t>
+  </si>
+  <si>
+    <t>wooyoomilk@naver.com</t>
+  </si>
+  <si>
+    <t>우연준</t>
+  </si>
+  <si>
+    <t>hyerim0v0@gmail.com</t>
+  </si>
+  <si>
+    <t>전혜림</t>
+  </si>
+  <si>
+    <t>cardinal0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김수환</t>
+  </si>
+  <si>
+    <t>ahak1006@naver.com</t>
+  </si>
+  <si>
+    <t>반도체-디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>김우진</t>
+  </si>
+  <si>
+    <t>hmg4898@naver.com</t>
+  </si>
+  <si>
+    <t>철학전공</t>
+  </si>
+  <si>
+    <t>한민교</t>
   </si>
 </sst>
 </file>
@@ -22781,6 +23270,2598 @@
         <v>102</v>
       </c>
     </row>
+    <row r="585">
+      <c r="A585" s="2">
+        <v>45544.9479628125</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D585" s="3">
+        <v>2.0217178E7</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F585" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G585" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H585" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I585" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J585" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2">
+        <v>45544.95280810185</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D586" s="3">
+        <v>2.0241082E7</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F586" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G586" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H586" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I586" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K586" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2">
+        <v>45544.98443016203</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D587" s="3">
+        <v>2.0212749E7</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F587" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G587" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H587" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I587" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K587" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2">
+        <v>45545.00761611111</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D588" s="3">
+        <v>2.0202637E7</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F588" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G588" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H588" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I588" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J588" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2">
+        <v>45545.01897614583</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D589" s="3">
+        <v>2.0191226E7</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F589" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G589" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H589" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I589" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K589" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2">
+        <v>45545.101197083335</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D590" s="3">
+        <v>2.0243959E7</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F590" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G590" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H590" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I590" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J590" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2">
+        <v>45545.12442506944</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D591" s="3">
+        <v>2.0243214E7</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F591" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G591" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H591" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I591" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J591" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2">
+        <v>45545.27427262731</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D592" s="3">
+        <v>2.0203026E7</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F592" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H592" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I592" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K592" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2">
+        <v>45545.434572743055</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D593" s="3">
+        <v>2.0192229E7</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F593" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G593" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H593" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I593" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J593" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2">
+        <v>45545.45462355324</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D594" s="3">
+        <v>2.0222424E7</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G594" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H594" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I594" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J594" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2">
+        <v>45545.507757569445</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D595" s="3">
+        <v>2.0243216E7</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F595" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H595" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I595" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J595" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2">
+        <v>45545.57353751158</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D596" s="3">
+        <v>2.0215109E7</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F596" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G596" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H596" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I596" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K596" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2">
+        <v>45545.61239732639</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D597" s="3">
+        <v>2.0215144E7</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F597" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H597" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I597" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J597" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2">
+        <v>45545.64439023148</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D598" s="3">
+        <v>2.0241054E7</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F598" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H598" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I598" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J598" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2">
+        <v>45545.666677280096</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D599" s="3">
+        <v>2.0223224E7</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H599" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I599" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J599" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2">
+        <v>45545.67510840278</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D600" s="3">
+        <v>2.0192983E7</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F600" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H600" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I600" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J600" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2">
+        <v>45545.74389454861</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D601" s="3">
+        <v>2.0242314E7</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F601" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H601" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I601" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J601" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2">
+        <v>45545.795201076384</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D602" s="3">
+        <v>2.0030807E7</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F602" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H602" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I602" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J602" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2">
+        <v>45545.79943940972</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D603" s="3">
+        <v>2.0182747E7</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F603" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H603" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I603" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K603" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2">
+        <v>45545.84650724537</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D604" s="3">
+        <v>2.0201002E7</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F604" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H604" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I604" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K604" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2">
+        <v>45545.84952900463</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D605" s="3">
+        <v>2.0232216E7</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F605" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G605" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H605" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I605" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K605" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2">
+        <v>45545.86184028935</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D606" s="3">
+        <v>2.0242344E7</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H606" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I606" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J606" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2">
+        <v>45545.91026942129</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D607" s="3">
+        <v>2.0193017E7</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F607" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G607" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H607" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I607" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J607" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2">
+        <v>45545.918603645834</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D608" s="3">
+        <v>2.0243314E7</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F608" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G608" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H608" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I608" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J608" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2">
+        <v>45545.96723326389</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D609" s="3">
+        <v>2.022283E7</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F609" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H609" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I609" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J609" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2">
+        <v>45546.001138692125</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D610" s="3">
+        <v>2.0195158E7</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F610" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H610" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I610" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J610" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2">
+        <v>45546.01467060186</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D611" s="3">
+        <v>2.0203046E7</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F611" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H611" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I611" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J611" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2">
+        <v>45546.028254363424</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D612" s="3">
+        <v>2.0192634E7</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F612" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H612" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I612" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K612" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2">
+        <v>45546.05220144676</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D613" s="3">
+        <v>2.0193429E7</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F613" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H613" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I613" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K613" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2">
+        <v>45546.39403457176</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D614" s="3">
+        <v>2.0213235E7</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F614" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H614" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I614" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J614" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2">
+        <v>45546.51594149305</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D615" s="3">
+        <v>2.0242423E7</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F615" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H615" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I615" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J615" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2">
+        <v>45546.54013978009</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D616" s="3">
+        <v>2.0242636E7</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F616" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H616" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I616" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J616" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2">
+        <v>45546.5487434838</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D617" s="3">
+        <v>2.0193813E7</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F617" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G617" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H617" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I617" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J617" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2">
+        <v>45546.55297331019</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D618" s="3">
+        <v>2.0246614E7</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F618" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H618" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I618" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K618" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2">
+        <v>45546.55920335648</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D619" s="3">
+        <v>2.0227091E7</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F619" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H619" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I619" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J619" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2">
+        <v>45546.56624310186</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D620" s="3">
+        <v>2.0201076E7</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F620" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G620" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H620" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I620" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J620" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2">
+        <v>45546.56731396991</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D621" s="3">
+        <v>2.0206623E7</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F621" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H621" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I621" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K621" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2">
+        <v>45546.61634310185</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D622" s="3">
+        <v>2.0216628E7</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F622" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G622" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H622" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I622" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J622" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2">
+        <v>45546.620816006944</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D623" s="3">
+        <v>2.020382E7</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F623" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G623" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H623" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I623" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K623" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2">
+        <v>45546.63520820602</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D624" s="3">
+        <v>2.0193844E7</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F624" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G624" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H624" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I624" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K624" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2">
+        <v>45546.638118194445</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D625" s="3">
+        <v>2.024391E7</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F625" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G625" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H625" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I625" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K625" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2">
+        <v>45546.642856736114</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D626" s="3">
+        <v>2.0245218E7</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F626" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G626" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H626" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I626" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J626" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2">
+        <v>45546.71255931713</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D627" s="3">
+        <v>2.024677E7</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F627" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G627" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H627" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I627" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J627" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2">
+        <v>45546.72952613426</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D628" s="3">
+        <v>2.0227039E7</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F628" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G628" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H628" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I628" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J628" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2">
+        <v>45546.73361451389</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D629" s="3">
+        <v>2.0242987E7</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F629" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G629" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H629" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I629" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K629" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2">
+        <v>45546.74214483796</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D630" s="3">
+        <v>2.0215108E7</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F630" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G630" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H630" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I630" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J630" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2">
+        <v>45546.743251458334</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D631" s="3">
+        <v>2.0242914E7</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F631" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G631" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H631" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I631" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K631" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2">
+        <v>45546.75816084491</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D632" s="3">
+        <v>2.0242981E7</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F632" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G632" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H632" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I632" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J632" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2">
+        <v>45546.75824451389</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D633" s="3">
+        <v>2.0213064E7</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F633" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H633" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I633" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K633" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2">
+        <v>45546.77560814815</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D634" s="3">
+        <v>2.0227106E7</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F634" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G634" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H634" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I634" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J634" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2">
+        <v>45546.906137557875</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D635" s="3">
+        <v>2.0212551E7</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F635" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H635" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I635" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J635" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2">
+        <v>45546.97228913194</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D636" s="3">
+        <v>2.0205198E7</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F636" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H636" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I636" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J636" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2">
+        <v>45547.06904787037</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D637" s="3">
+        <v>2.0235198E7</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F637" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H637" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I637" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J637" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2">
+        <v>45547.10377138889</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D638" s="3">
+        <v>2.0233408E7</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F638" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H638" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I638" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K638" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2">
+        <v>45547.50565655093</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D639" s="3">
+        <v>2.0223504E7</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F639" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H639" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I639" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J639" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2">
+        <v>45547.50821215278</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D640" s="3">
+        <v>2.0246222E7</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F640" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H640" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I640" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K640" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2">
+        <v>45547.63939952546</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D641" s="3">
+        <v>2.0202834E7</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F641" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H641" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I641" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J641" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2">
+        <v>45547.67878410879</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D642" s="3">
+        <v>2.0242824E7</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F642" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H642" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I642" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K642" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2">
+        <v>45547.684790694446</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D643" s="3">
+        <v>2.0242109E7</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F643" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H643" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I643" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J643" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2">
+        <v>45547.68955902778</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D644" s="3">
+        <v>2.0194153E7</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F644" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H644" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I644" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J644" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2">
+        <v>45547.76979070602</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D645" s="3">
+        <v>2.0213709E7</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F645" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H645" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I645" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K645" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2">
+        <v>45547.82140863426</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D646" s="3">
+        <v>2.0203302E7</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F646" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G646" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H646" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I646" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K646" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2">
+        <v>45547.821615520836</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C647" s="3">
+        <v>2.0203802E7</v>
+      </c>
+      <c r="D647" s="3">
+        <v>2.0203802E7</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F647" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H647" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I647" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K647" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2">
+        <v>45547.92689018519</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D648" s="3">
+        <v>2.0232311E7</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F648" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H648" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I648" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K648" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2">
+        <v>45547.99458108796</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D649" s="3">
+        <v>2.0242532E7</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F649" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H649" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I649" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K649" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2">
+        <v>45548.042535</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D650" s="3">
+        <v>2.0212846E7</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F650" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H650" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I650" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J650" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2">
+        <v>45548.08894769676</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D651" s="3">
+        <v>2.0217103E7</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F651" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H651" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I651" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J651" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2">
+        <v>45548.12480157407</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D652" s="3">
+        <v>2.0222128E7</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F652" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H652" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I652" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J652" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2">
+        <v>45548.48479116899</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D653" s="3">
+        <v>2.0193626E7</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F653" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G653" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H653" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I653" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K653" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2">
+        <v>45548.571278993055</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D654" s="3">
+        <v>2.0233031E7</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="F654" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G654" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H654" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I654" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J654" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2">
+        <v>45548.631723611106</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D655" s="3">
+        <v>2.0246633E7</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F655" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G655" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H655" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I655" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K655" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2">
+        <v>45548.677230208334</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D656" s="3">
+        <v>2.0213533E7</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F656" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G656" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H656" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I656" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J656" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2">
+        <v>45548.741187997686</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D657" s="3">
+        <v>2.0202719E7</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F657" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G657" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H657" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I657" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J657" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2">
+        <v>45548.81267944444</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D658" s="3">
+        <v>2.0246741E7</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F658" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G658" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H658" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I658" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K658" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2">
+        <v>45548.906305474535</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D659" s="3">
+        <v>2.0191514E7</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F659" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H659" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I659" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K659" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2">
+        <v>45548.911376805554</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D660" s="3">
+        <v>2.0241536E7</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F660" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H660" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I660" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J660" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2">
+        <v>45548.96995814815</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D661" s="3">
+        <v>2.0242988E7</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F661" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H661" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I661" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J661" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2">
+        <v>45549.028780023145</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D662" s="3">
+        <v>2.023163E7</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F662" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H662" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I662" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K662" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2">
+        <v>45549.05199043981</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D663" s="3">
+        <v>2.0242511E7</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F663" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H663" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I663" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J663" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2">
+        <v>45549.16933444444</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D664" s="3">
+        <v>2.0243309E7</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F664" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H664" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I664" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J664" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2">
+        <v>45549.209409930554</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D665" s="3">
+        <v>2.0191106E7</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F665" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H665" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I665" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J665" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz240902_tmp.xlsx
+++ b/R/data/quiz240902_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5321" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5657" uniqueCount="1515">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4310,6 +4310,252 @@
   </si>
   <si>
     <t>한민교</t>
+  </si>
+  <si>
+    <t>inheo0428@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">허인 </t>
+  </si>
+  <si>
+    <t>skaskgus@gmail.com</t>
+  </si>
+  <si>
+    <t>남나현</t>
+  </si>
+  <si>
+    <t>soonbeom1130@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>권순범</t>
+  </si>
+  <si>
+    <t>jangsinhyeog6@gmail.com</t>
+  </si>
+  <si>
+    <t>장신혁</t>
+  </si>
+  <si>
+    <t>t01094887068@gmail.com</t>
+  </si>
+  <si>
+    <t>손민재</t>
+  </si>
+  <si>
+    <t>gisung5864@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI의료융합전공 </t>
+  </si>
+  <si>
+    <t>조기성</t>
+  </si>
+  <si>
+    <t>choikang2010@naver.com</t>
+  </si>
+  <si>
+    <t>최연희</t>
+  </si>
+  <si>
+    <t>seokwony123@gmail.com</t>
+  </si>
+  <si>
+    <t>양석원</t>
+  </si>
+  <si>
+    <t>lapter1122@naver.com</t>
+  </si>
+  <si>
+    <t>진유진</t>
+  </si>
+  <si>
+    <t>ueusudjsjsksksk@gmail.com</t>
+  </si>
+  <si>
+    <t>강동현</t>
+  </si>
+  <si>
+    <t>kte1785@naver.com</t>
+  </si>
+  <si>
+    <t>erang051216@naver.com</t>
+  </si>
+  <si>
+    <t>박이랑</t>
+  </si>
+  <si>
+    <t>qqwer7155@naver.com</t>
+  </si>
+  <si>
+    <t>이윤진</t>
+  </si>
+  <si>
+    <t>ahry60006@naver.com</t>
+  </si>
+  <si>
+    <t>김성진</t>
+  </si>
+  <si>
+    <t>wlghd2352@naver.com</t>
+  </si>
+  <si>
+    <t>안지홍</t>
+  </si>
+  <si>
+    <t>ahjo7536@gmail.com</t>
+  </si>
+  <si>
+    <t>김지성</t>
+  </si>
+  <si>
+    <t>junyeong@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박준영</t>
+  </si>
+  <si>
+    <t>wjdalsrb303@naver.com</t>
+  </si>
+  <si>
+    <t>정민규</t>
+  </si>
+  <si>
+    <t>ij9584195@gmail.com</t>
+  </si>
+  <si>
+    <t>dkddkd8480@gmail.com</t>
+  </si>
+  <si>
+    <t>유용재</t>
+  </si>
+  <si>
+    <t>tommy580134@naver.com</t>
+  </si>
+  <si>
+    <t>예준원</t>
+  </si>
+  <si>
+    <t>jjww74@naver.com</t>
+  </si>
+  <si>
+    <t>최재원</t>
+  </si>
+  <si>
+    <t>dmsdn6462@naver.com</t>
+  </si>
+  <si>
+    <t>김은우</t>
+  </si>
+  <si>
+    <t>20235263@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>jiyewon5555@gmail.com</t>
+  </si>
+  <si>
+    <t>지예원</t>
+  </si>
+  <si>
+    <t>dudlrls@kakao.com</t>
+  </si>
+  <si>
+    <t>안여름</t>
+  </si>
+  <si>
+    <t>sky0219msh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">환경생명공학과 </t>
+  </si>
+  <si>
+    <t>최하늘</t>
+  </si>
+  <si>
+    <t>tmddl3538@naver.com</t>
+  </si>
+  <si>
+    <t>lts_02@naver.com</t>
+  </si>
+  <si>
+    <t>이태섭</t>
+  </si>
+  <si>
+    <t>dahyeony410@gmail.com</t>
+  </si>
+  <si>
+    <t>윤다현</t>
+  </si>
+  <si>
+    <t>jhry0903@naver.com</t>
+  </si>
+  <si>
+    <t>조하령</t>
+  </si>
+  <si>
+    <t>leehanseo0521@naver.com</t>
+  </si>
+  <si>
+    <t>이한서</t>
+  </si>
+  <si>
+    <t>jud050207@gmail.com</t>
+  </si>
+  <si>
+    <t>정의돈</t>
+  </si>
+  <si>
+    <t>juicee220@gmail.com</t>
+  </si>
+  <si>
+    <t>최주아</t>
+  </si>
+  <si>
+    <t>ataraxia050508@naver.com</t>
+  </si>
+  <si>
+    <t>박정호</t>
+  </si>
+  <si>
+    <t>rhkddyd234@naver.com</t>
+  </si>
+  <si>
+    <t>이광용</t>
+  </si>
+  <si>
+    <t>cmin0945@gmail.com</t>
+  </si>
+  <si>
+    <t>조상민</t>
+  </si>
+  <si>
+    <t>bamddol2@gmail.com</t>
+  </si>
+  <si>
+    <t>조찬영</t>
+  </si>
+  <si>
+    <t>sihyune1104@gmail.com</t>
+  </si>
+  <si>
+    <t>안시현</t>
+  </si>
+  <si>
+    <t>hyeonyonga@naver.com</t>
+  </si>
+  <si>
+    <t>안현용</t>
+  </si>
+  <si>
+    <t>bmj4033@gmail.com</t>
+  </si>
+  <si>
+    <t>백민제</t>
+  </si>
+  <si>
+    <t>soyeon2025@naver.com</t>
   </si>
 </sst>
 </file>
@@ -25862,6 +26108,1350 @@
         <v>31</v>
       </c>
     </row>
+    <row r="666">
+      <c r="A666" s="2">
+        <v>45549.41538414352</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D666" s="3">
+        <v>2.0242358E7</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F666" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H666" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I666" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K666" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2">
+        <v>45549.43387666666</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D667" s="3">
+        <v>2.0202324E7</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F667" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G667" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H667" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I667" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K667" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2">
+        <v>45549.45235324074</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D668" s="3">
+        <v>2.0235112E7</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F668" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G668" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H668" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I668" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K668" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2">
+        <v>45549.601469733796</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D669" s="3">
+        <v>2.0246768E7</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F669" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H669" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I669" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K669" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2">
+        <v>45549.61266489583</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D670" s="3">
+        <v>2.0242122E7</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F670" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H670" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I670" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K670" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2">
+        <v>45549.62779542824</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D671" s="3">
+        <v>2.0216526E7</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F671" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H671" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I671" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K671" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2">
+        <v>45549.63705679398</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D672" s="3">
+        <v>2.0222238E7</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H672" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I672" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J672" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2">
+        <v>45549.64160148148</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D673" s="3">
+        <v>2.0243721E7</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F673" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H673" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I673" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J673" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2">
+        <v>45549.65301998843</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D674" s="3">
+        <v>2.0232635E7</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F674" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H674" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I674" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J674" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2">
+        <v>45549.67536385417</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D675" s="3">
+        <v>2.0245102E7</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F675" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H675" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I675" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J675" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2">
+        <v>45549.758692268515</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D676" s="3">
+        <v>2.0243913E7</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F676" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H676" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I676" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J676" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2">
+        <v>45549.80663763889</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D677" s="3">
+        <v>2.0243223E7</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F677" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H677" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I677" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K677" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2">
+        <v>45549.82696280093</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D678" s="3">
+        <v>2.0214134E7</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F678" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H678" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I678" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J678" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2">
+        <v>45549.840964131945</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D679" s="3">
+        <v>2.0202708E7</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F679" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H679" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I679" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K679" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2">
+        <v>45549.84395621528</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D680" s="3">
+        <v>2.0202418E7</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F680" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H680" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I680" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J680" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2">
+        <v>45549.847420763894</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D681" s="3">
+        <v>2.0242212E7</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F681" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G681" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H681" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I681" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K681" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2">
+        <v>45549.85200275463</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D682" s="3">
+        <v>2.0245169E7</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F682" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G682" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H682" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I682" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K682" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2">
+        <v>45549.89557424768</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D683" s="3">
+        <v>2.0202431E7</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F683" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G683" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H683" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I683" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K683" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2">
+        <v>45549.90153525463</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D684" s="3">
+        <v>2.024664E7</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="F684" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G684" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H684" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I684" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J684" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2">
+        <v>45549.92051111111</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D685" s="3">
+        <v>2.0243235E7</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F685" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H685" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I685" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K685" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2">
+        <v>45549.93176894676</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D686" s="3">
+        <v>2.024242E7</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F686" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H686" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I686" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K686" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2">
+        <v>45549.93459377315</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D687" s="3">
+        <v>2.0203055E7</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F687" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G687" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H687" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I687" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J687" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2">
+        <v>45549.94098247685</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D688" s="3">
+        <v>2.0202106E7</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F688" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G688" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H688" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I688" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J688" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2">
+        <v>45549.94844230324</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D689" s="3">
+        <v>2.0235263E7</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F689" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G689" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H689" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I689" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K689" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2">
+        <v>45549.96526020834</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D690" s="3">
+        <v>2.0202641E7</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F690" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H690" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I690" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K690" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2">
+        <v>45549.99185560185</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D691" s="3">
+        <v>2.0212736E7</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F691" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G691" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H691" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I691" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K691" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2">
+        <v>45549.99742048611</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D692" s="3">
+        <v>2.0201108E7</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F692" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G692" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H692" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I692" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J692" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2">
+        <v>45550.03338707176</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D693" s="3">
+        <v>2.0227037E7</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F693" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G693" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H693" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I693" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K693" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2">
+        <v>45550.034740057876</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D694" s="3">
+        <v>2.0213023E7</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F694" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G694" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H694" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I694" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K694" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2">
+        <v>45550.05056162037</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D695" s="3">
+        <v>2.0233415E7</v>
+      </c>
+      <c r="E695" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F695" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G695" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H695" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I695" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J695" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2">
+        <v>45550.05495045139</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D696" s="3">
+        <v>2.0241097E7</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F696" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G696" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H696" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I696" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K696" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2">
+        <v>45550.120381388886</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D697" s="3">
+        <v>2.0236283E7</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F697" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G697" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H697" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I697" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K697" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2">
+        <v>45550.13518636574</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D698" s="3">
+        <v>2.0245252E7</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F698" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G698" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H698" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I698" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J698" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2">
+        <v>45550.135675833335</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D699" s="3">
+        <v>2.0231101E7</v>
+      </c>
+      <c r="E699" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F699" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G699" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H699" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I699" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J699" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2">
+        <v>45550.14809819445</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D700" s="3">
+        <v>2.0242118E7</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F700" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G700" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H700" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I700" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K700" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2">
+        <v>45550.16870032407</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D701" s="3">
+        <v>2.019342E7</v>
+      </c>
+      <c r="E701" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F701" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G701" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H701" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I701" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K701" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2">
+        <v>45550.31625981482</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D702" s="3">
+        <v>2.0246776E7</v>
+      </c>
+      <c r="E702" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F702" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G702" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H702" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I702" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J702" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2">
+        <v>45550.31856871527</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D703" s="3">
+        <v>2.0161632E7</v>
+      </c>
+      <c r="E703" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F703" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G703" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H703" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I703" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J703" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2">
+        <v>45550.32801622685</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D704" s="3">
+        <v>2.0232726E7</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F704" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G704" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H704" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I704" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J704" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2">
+        <v>45550.352923784725</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D705" s="3">
+        <v>2.0243415E7</v>
+      </c>
+      <c r="E705" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F705" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G705" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H705" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I705" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K705" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2">
+        <v>45550.367130011575</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D706" s="3">
+        <v>2.0231712E7</v>
+      </c>
+      <c r="E706" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F706" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G706" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H706" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I706" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J706" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2">
+        <v>45550.378834953706</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D707" s="3">
+        <v>2.0246221E7</v>
+      </c>
+      <c r="E707" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F707" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G707" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H707" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I707" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K707" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz240902_tmp.xlsx
+++ b/R/data/quiz240902_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5657" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6241" uniqueCount="1658">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4556,6 +4556,435 @@
   </si>
   <si>
     <t>soyeon2025@naver.com</t>
+  </si>
+  <si>
+    <t>dmtn0001@naver.com</t>
+  </si>
+  <si>
+    <t>김의수</t>
+  </si>
+  <si>
+    <t>hyeonjin0976@gmail.com</t>
+  </si>
+  <si>
+    <t>류현진</t>
+  </si>
+  <si>
+    <t>koreavjr@naver.com</t>
+  </si>
+  <si>
+    <t>박지성</t>
+  </si>
+  <si>
+    <t>kt433@naver.com</t>
+  </si>
+  <si>
+    <t>주혜린</t>
+  </si>
+  <si>
+    <t>xogns3043@gmail.com</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>mjsong4130@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부 AI로봇융합전공</t>
+  </si>
+  <si>
+    <t>송민재</t>
+  </si>
+  <si>
+    <t>hanseoyun392@gmail.com</t>
+  </si>
+  <si>
+    <t>한서윤</t>
+  </si>
+  <si>
+    <t>123plokml123@gmail.com</t>
+  </si>
+  <si>
+    <t>지현배</t>
+  </si>
+  <si>
+    <t>kmjung0948@gmail.com</t>
+  </si>
+  <si>
+    <t>진현수</t>
+  </si>
+  <si>
+    <t>cho011104@naver.com</t>
+  </si>
+  <si>
+    <t>조윤재</t>
+  </si>
+  <si>
+    <t>p1aymaker9926@gmail.com</t>
+  </si>
+  <si>
+    <t>김대환</t>
+  </si>
+  <si>
+    <t>psh020509@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경제학과 </t>
+  </si>
+  <si>
+    <t>박시환</t>
+  </si>
+  <si>
+    <t>wendy040507@naver.com</t>
+  </si>
+  <si>
+    <t>linden0923@gmail.com</t>
+  </si>
+  <si>
+    <t>이지우</t>
+  </si>
+  <si>
+    <t>u2fjfjrjdjjr2@naver.com</t>
+  </si>
+  <si>
+    <t>기소연</t>
+  </si>
+  <si>
+    <t>kusahana8047@gmail.com</t>
+  </si>
+  <si>
+    <t>유현우</t>
+  </si>
+  <si>
+    <t>gordon0625@naver.com</t>
+  </si>
+  <si>
+    <t>김승재</t>
+  </si>
+  <si>
+    <t>chltjdnjs2421@naver.com</t>
+  </si>
+  <si>
+    <t>최서원</t>
+  </si>
+  <si>
+    <t>alwo990@naver.com</t>
+  </si>
+  <si>
+    <t>서정웅</t>
+  </si>
+  <si>
+    <t>chaseoyeon0103@naver.com</t>
+  </si>
+  <si>
+    <t>차서연</t>
+  </si>
+  <si>
+    <t>dojun0707@naver.com</t>
+  </si>
+  <si>
+    <t>차도준</t>
+  </si>
+  <si>
+    <t>youmin43@naver.com</t>
+  </si>
+  <si>
+    <t>박유민</t>
+  </si>
+  <si>
+    <t>opkl52@naver.com</t>
+  </si>
+  <si>
+    <t>유승미</t>
+  </si>
+  <si>
+    <t>yule240110@gmail.com</t>
+  </si>
+  <si>
+    <t>조율</t>
+  </si>
+  <si>
+    <t>byl0730@naver.com</t>
+  </si>
+  <si>
+    <t>변예림</t>
+  </si>
+  <si>
+    <t>seoeun2003@naver.com</t>
+  </si>
+  <si>
+    <t>최서은</t>
+  </si>
+  <si>
+    <t>syuniw26@gmail.com</t>
+  </si>
+  <si>
+    <t>이서윤</t>
+  </si>
+  <si>
+    <t>ojg1476@naver.com</t>
+  </si>
+  <si>
+    <t>오정건</t>
+  </si>
+  <si>
+    <t>azurerose520@gmail.com</t>
+  </si>
+  <si>
+    <t>주시은</t>
+  </si>
+  <si>
+    <t>lsd5741@naver.con</t>
+  </si>
+  <si>
+    <t>이소담</t>
+  </si>
+  <si>
+    <t>r67890@naver.com</t>
+  </si>
+  <si>
+    <t>이규형</t>
+  </si>
+  <si>
+    <t>tlqpfldkghfk@gmail.com</t>
+  </si>
+  <si>
+    <t>sonsumin0304@naver.com</t>
+  </si>
+  <si>
+    <t>손수민</t>
+  </si>
+  <si>
+    <t>rlatldbs124@naevr.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>geonu4496@gmail.com</t>
+  </si>
+  <si>
+    <t>이건우</t>
+  </si>
+  <si>
+    <t>cth041103@naver.com</t>
+  </si>
+  <si>
+    <t>최태희</t>
+  </si>
+  <si>
+    <t>iiiiii3314@naver.com</t>
+  </si>
+  <si>
+    <t>엄수빈</t>
+  </si>
+  <si>
+    <t>jsk991012@naver.com</t>
+  </si>
+  <si>
+    <t>김준서</t>
+  </si>
+  <si>
+    <t>h20202564@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이호연</t>
+  </si>
+  <si>
+    <t>joo6806898@naver.com</t>
+  </si>
+  <si>
+    <t>김승주</t>
+  </si>
+  <si>
+    <t>hlu20242513@gmail.com</t>
+  </si>
+  <si>
+    <t>김예준</t>
+  </si>
+  <si>
+    <t>eoqkr4821@naver.com</t>
+  </si>
+  <si>
+    <t>rkdwndms112@naver.com</t>
+  </si>
+  <si>
+    <t>강주은</t>
+  </si>
+  <si>
+    <t>kuse971228@naver.com</t>
+  </si>
+  <si>
+    <t>jina20050429@gmail.com</t>
+  </si>
+  <si>
+    <t>이진아</t>
+  </si>
+  <si>
+    <t>wdthi1120@naver.com</t>
+  </si>
+  <si>
+    <t>오지원</t>
+  </si>
+  <si>
+    <t>sejun4@naver.com</t>
+  </si>
+  <si>
+    <t>경영/청각</t>
+  </si>
+  <si>
+    <t>박세준</t>
+  </si>
+  <si>
+    <t>dream03064@gmail.com</t>
+  </si>
+  <si>
+    <t>오채연</t>
+  </si>
+  <si>
+    <t>joyang4777@gmail.com</t>
+  </si>
+  <si>
+    <t>함현아</t>
+  </si>
+  <si>
+    <t>kimkim1207kim@gmail.com</t>
+  </si>
+  <si>
+    <t>김향수</t>
+  </si>
+  <si>
+    <t>h20202519@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>남현아</t>
+  </si>
+  <si>
+    <t>peony.chung04@gmail.com</t>
+  </si>
+  <si>
+    <t>정수영</t>
+  </si>
+  <si>
+    <t>chaerin3940@naver.com</t>
+  </si>
+  <si>
+    <t>김채린</t>
+  </si>
+  <si>
+    <t>ysuyes@gmail.com</t>
+  </si>
+  <si>
+    <t>윤승욱</t>
+  </si>
+  <si>
+    <t>moon050123@naver.com</t>
+  </si>
+  <si>
+    <t>문서원</t>
+  </si>
+  <si>
+    <t>20222849@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한애진</t>
+  </si>
+  <si>
+    <t>marcy0628@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>송지우</t>
+  </si>
+  <si>
+    <t>jongjongsook@naver.com</t>
+  </si>
+  <si>
+    <t>김종숙</t>
+  </si>
+  <si>
+    <t>yuntwo22@naver.com</t>
+  </si>
+  <si>
+    <t>윤세진</t>
+  </si>
+  <si>
+    <t>saycom816@gmail.com</t>
+  </si>
+  <si>
+    <t>김영빈</t>
+  </si>
+  <si>
+    <t>kimtaehee34@naver.com</t>
+  </si>
+  <si>
+    <t>nari040812@naver.com</t>
+  </si>
+  <si>
+    <t>이나리</t>
+  </si>
+  <si>
+    <t>lgc01040089921@gmail.com</t>
+  </si>
+  <si>
+    <t>이감찬</t>
+  </si>
+  <si>
+    <t>dw060419@naver.com</t>
+  </si>
+  <si>
+    <t>김도원</t>
+  </si>
+  <si>
+    <t>ksj101710@naver.com</t>
+  </si>
+  <si>
+    <t>김경록</t>
+  </si>
+  <si>
+    <t>tkddnt0608@gmail.com</t>
+  </si>
+  <si>
+    <t>유상욱</t>
+  </si>
+  <si>
+    <t>pcw5766@naver.com</t>
+  </si>
+  <si>
+    <t>박찬웅</t>
+  </si>
+  <si>
+    <t>kangyein0810@gmail.com</t>
+  </si>
+  <si>
+    <t>강예인</t>
+  </si>
+  <si>
+    <t>rachal7449@naver.com</t>
+  </si>
+  <si>
+    <t>최자영</t>
+  </si>
+  <si>
+    <t>haeun_ob@naver.com</t>
+  </si>
+  <si>
+    <t>박하은</t>
+  </si>
+  <si>
+    <t>towp7563@gmail.com</t>
+  </si>
+  <si>
+    <t>오승현</t>
+  </si>
+  <si>
+    <t>shimyuna14@naver.com</t>
+  </si>
+  <si>
+    <t>심유나</t>
   </si>
 </sst>
 </file>
@@ -27452,6 +27881,2342 @@
         <v>35</v>
       </c>
     </row>
+    <row r="708">
+      <c r="A708" s="2">
+        <v>45550.41158372685</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D708" s="3">
+        <v>2.0212927E7</v>
+      </c>
+      <c r="E708" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F708" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G708" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H708" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I708" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J708" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2">
+        <v>45550.44158572917</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D709" s="3">
+        <v>2.0192717E7</v>
+      </c>
+      <c r="E709" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F709" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G709" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H709" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I709" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K709" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2">
+        <v>45550.442002407406</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D710" s="3">
+        <v>2.0212827E7</v>
+      </c>
+      <c r="E710" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F710" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G710" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H710" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I710" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J710" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2">
+        <v>45550.4421319213</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D711" s="3">
+        <v>2.0222361E7</v>
+      </c>
+      <c r="E711" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F711" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H711" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I711" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J711" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2">
+        <v>45550.45180115741</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D712" s="3">
+        <v>2.022704E7</v>
+      </c>
+      <c r="E712" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F712" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H712" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I712" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K712" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2">
+        <v>45550.45866063658</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D713" s="3">
+        <v>2.0236736E7</v>
+      </c>
+      <c r="E713" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F713" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H713" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I713" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K713" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2">
+        <v>45550.460355937495</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D714" s="3">
+        <v>2.0243964E7</v>
+      </c>
+      <c r="E714" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F714" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H714" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I714" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K714" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2">
+        <v>45550.46906737269</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D715" s="3">
+        <v>2.0245266E7</v>
+      </c>
+      <c r="E715" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F715" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H715" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I715" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J715" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2">
+        <v>45550.50040951389</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D716" s="3">
+        <v>2.0242352E7</v>
+      </c>
+      <c r="E716" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F716" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H716" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I716" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J716" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2">
+        <v>45550.507395243054</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D717" s="3">
+        <v>2.0227162E7</v>
+      </c>
+      <c r="E717" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F717" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H717" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I717" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K717" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2">
+        <v>45550.51385106481</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D718" s="3">
+        <v>2.0246909E7</v>
+      </c>
+      <c r="E718" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F718" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G718" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H718" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I718" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J718" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2">
+        <v>45550.52956052084</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D719" s="3">
+        <v>2.021282E7</v>
+      </c>
+      <c r="E719" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F719" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G719" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H719" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I719" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K719" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2">
+        <v>45550.53661351852</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D720" s="3">
+        <v>2.0243002E7</v>
+      </c>
+      <c r="E720" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F720" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G720" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H720" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I720" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J720" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2">
+        <v>45550.550703587964</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D721" s="3">
+        <v>2.0233016E7</v>
+      </c>
+      <c r="E721" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F721" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G721" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H721" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I721" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J721" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2">
+        <v>45550.550856064816</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D722" s="3">
+        <v>2.0232502E7</v>
+      </c>
+      <c r="E722" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F722" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G722" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H722" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I722" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J722" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2">
+        <v>45550.555691828704</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D723" s="3">
+        <v>2.0192736E7</v>
+      </c>
+      <c r="E723" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F723" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H723" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I723" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J723" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2">
+        <v>45550.557782592594</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D724" s="3">
+        <v>2.0245131E7</v>
+      </c>
+      <c r="E724" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F724" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H724" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I724" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J724" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2">
+        <v>45550.566547152775</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D725" s="3">
+        <v>2.0242848E7</v>
+      </c>
+      <c r="E725" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F725" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G725" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H725" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I725" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J725" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2">
+        <v>45550.57234195602</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D726" s="3">
+        <v>2.0207133E7</v>
+      </c>
+      <c r="E726" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F726" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G726" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H726" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I726" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K726" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2">
+        <v>45550.58161178241</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D727" s="3">
+        <v>2.0241537E7</v>
+      </c>
+      <c r="E727" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F727" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G727" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H727" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I727" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J727" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2">
+        <v>45550.58434836805</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D728" s="3">
+        <v>2.0245268E7</v>
+      </c>
+      <c r="E728" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F728" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G728" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H728" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I728" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J728" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2">
+        <v>45550.592829189816</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D729" s="3">
+        <v>2.0246728E7</v>
+      </c>
+      <c r="E729" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F729" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H729" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I729" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K729" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2">
+        <v>45550.602605266206</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D730" s="3">
+        <v>2.0202994E7</v>
+      </c>
+      <c r="E730" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F730" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H730" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I730" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J730" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2">
+        <v>45550.61395261574</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D731" s="3">
+        <v>2.0243844E7</v>
+      </c>
+      <c r="E731" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F731" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G731" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H731" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I731" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J731" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2">
+        <v>45550.67166607639</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D732" s="3">
+        <v>2.0243715E7</v>
+      </c>
+      <c r="E732" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F732" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H732" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I732" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K732" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2">
+        <v>45550.6890355787</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D733" s="3">
+        <v>2.0232238E7</v>
+      </c>
+      <c r="E733" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F733" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G733" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H733" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I733" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J733" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2">
+        <v>45550.69477383102</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D734" s="3">
+        <v>2.0243726E7</v>
+      </c>
+      <c r="E734" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F734" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G734" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H734" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I734" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K734" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2">
+        <v>45550.700787800924</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D735" s="3">
+        <v>2.0215187E7</v>
+      </c>
+      <c r="E735" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F735" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G735" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H735" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I735" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J735" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2">
+        <v>45550.7246962037</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D736" s="3">
+        <v>2.0233048E7</v>
+      </c>
+      <c r="E736" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F736" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G736" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H736" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I736" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J736" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2">
+        <v>45550.73193232639</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D737" s="3">
+        <v>2.0242225E7</v>
+      </c>
+      <c r="E737" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F737" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G737" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H737" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I737" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J737" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2">
+        <v>45550.764592824074</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D738" s="3">
+        <v>2.0205217E7</v>
+      </c>
+      <c r="E738" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F738" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G738" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H738" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I738" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K738" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2">
+        <v>45550.77037090278</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D739" s="3">
+        <v>2.0202406E7</v>
+      </c>
+      <c r="E739" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F739" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G739" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H739" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I739" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K739" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2">
+        <v>45550.77533016204</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D740" s="3">
+        <v>2.0226748E7</v>
+      </c>
+      <c r="E740" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F740" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G740" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H740" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I740" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K740" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2">
+        <v>45550.78378604166</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D741" s="3">
+        <v>2.0203807E7</v>
+      </c>
+      <c r="E741" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F741" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G741" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H741" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I741" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K741" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2">
+        <v>45550.79898315972</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D742" s="3">
+        <v>2.0212549E7</v>
+      </c>
+      <c r="E742" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F742" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G742" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H742" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I742" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J742" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2">
+        <v>45550.81474054398</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D743" s="3">
+        <v>2.0233544E7</v>
+      </c>
+      <c r="E743" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F743" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G743" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H743" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I743" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J743" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2">
+        <v>45550.81682953704</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D744" s="3">
+        <v>2.0242986E7</v>
+      </c>
+      <c r="E744" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F744" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G744" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H744" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I744" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K744" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2">
+        <v>45550.82116493056</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D745" s="3">
+        <v>2.0182519E7</v>
+      </c>
+      <c r="E745" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F745" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G745" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H745" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I745" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K745" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2">
+        <v>45550.821870370375</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D746" s="3">
+        <v>2.0202564E7</v>
+      </c>
+      <c r="E746" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F746" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G746" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H746" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I746" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J746" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2">
+        <v>45550.82322107639</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D747" s="3">
+        <v>2.0223605E7</v>
+      </c>
+      <c r="E747" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F747" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G747" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H747" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I747" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J747" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2">
+        <v>45550.82466106482</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D748" s="3">
+        <v>2.0242513E7</v>
+      </c>
+      <c r="E748" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F748" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G748" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H748" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I748" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J748" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2">
+        <v>45550.82487615741</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D749" s="3">
+        <v>2.0231025E7</v>
+      </c>
+      <c r="E749" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F749" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G749" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H749" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I749" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J749" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2">
+        <v>45550.8251087963</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D750" s="3">
+        <v>2.0202501E7</v>
+      </c>
+      <c r="E750" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F750" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G750" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H750" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I750" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K750" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2">
+        <v>45550.82723203704</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D751" s="3">
+        <v>2.0203908E7</v>
+      </c>
+      <c r="E751" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F751" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G751" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H751" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I751" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K751" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2">
+        <v>45550.82746236111</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D752" s="3">
+        <v>2.0243731E7</v>
+      </c>
+      <c r="E752" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F752" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G752" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H752" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I752" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K752" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2">
+        <v>45550.82886775463</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D753" s="3">
+        <v>2.0241047E7</v>
+      </c>
+      <c r="E753" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F753" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G753" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H753" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I753" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J753" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2">
+        <v>45550.82953989583</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D754" s="3">
+        <v>2.0232554E7</v>
+      </c>
+      <c r="E754" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F754" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G754" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H754" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I754" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K754" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2">
+        <v>45550.8371740625</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D755" s="3">
+        <v>2.0193968E7</v>
+      </c>
+      <c r="E755" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F755" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G755" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H755" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I755" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K755" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2">
+        <v>45550.83839454861</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D756" s="3">
+        <v>2.0243927E7</v>
+      </c>
+      <c r="E756" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F756" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G756" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H756" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I756" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J756" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2">
+        <v>45550.838559236116</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D757" s="3">
+        <v>2.0243432E7</v>
+      </c>
+      <c r="E757" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F757" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G757" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H757" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I757" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J757" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2">
+        <v>45550.84029216435</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D758" s="3">
+        <v>2.023331E7</v>
+      </c>
+      <c r="E758" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F758" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G758" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H758" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I758" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K758" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2">
+        <v>45550.84127980324</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D759" s="3">
+        <v>2.0202519E7</v>
+      </c>
+      <c r="E759" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F759" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G759" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H759" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I759" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J759" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2">
+        <v>45550.84402769676</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D760" s="3">
+        <v>2.0241728E7</v>
+      </c>
+      <c r="E760" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F760" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G760" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H760" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I760" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K760" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2">
+        <v>45550.84440577547</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D761" s="3">
+        <v>2.023221E7</v>
+      </c>
+      <c r="E761" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F761" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G761" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H761" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I761" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K761" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2">
+        <v>45550.845219930554</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D762" s="3">
+        <v>2.0242992E7</v>
+      </c>
+      <c r="E762" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F762" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G762" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H762" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I762" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J762" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2">
+        <v>45550.84707123843</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D763" s="3">
+        <v>2.0241518E7</v>
+      </c>
+      <c r="E763" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F763" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G763" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H763" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I763" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K763" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2">
+        <v>45550.85200039352</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D764" s="3">
+        <v>2.0222849E7</v>
+      </c>
+      <c r="E764" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F764" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G764" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H764" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I764" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K764" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2">
+        <v>45550.861831111106</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D765" s="3">
+        <v>2.0216514E7</v>
+      </c>
+      <c r="E765" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F765" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G765" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H765" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I765" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J765" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2">
+        <v>45550.86194675926</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D766" s="3">
+        <v>2.0243613E7</v>
+      </c>
+      <c r="E766" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F766" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G766" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H766" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I766" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K766" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2">
+        <v>45550.86322435185</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D767" s="3">
+        <v>2.0195206E7</v>
+      </c>
+      <c r="E767" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F767" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G767" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H767" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I767" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J767" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2">
+        <v>45550.865217962964</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D768" s="3">
+        <v>2.024293E7</v>
+      </c>
+      <c r="E768" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F768" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G768" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H768" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I768" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K768" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2">
+        <v>45550.86604945602</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D769" s="3">
+        <v>2.0232941E7</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F769" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G769" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H769" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I769" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J769" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2">
+        <v>45550.867565740744</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D770" s="3">
+        <v>2.0233E7</v>
+      </c>
+      <c r="E770" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F770" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G770" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H770" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I770" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J770" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2">
+        <v>45550.87996770833</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D771" s="3">
+        <v>2.0242995E7</v>
+      </c>
+      <c r="E771" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F771" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G771" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H771" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I771" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K771" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2">
+        <v>45550.881516574074</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D772" s="3">
+        <v>2.0241509E7</v>
+      </c>
+      <c r="E772" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F772" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G772" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H772" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I772" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J772" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2">
+        <v>45550.8853306713</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D773" s="3">
+        <v>2.0245117E7</v>
+      </c>
+      <c r="E773" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F773" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G773" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H773" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I773" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J773" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2">
+        <v>45550.90223390046</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D774" s="3">
+        <v>2.0182933E7</v>
+      </c>
+      <c r="E774" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F774" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G774" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H774" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I774" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J774" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2">
+        <v>45550.90950653935</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D775" s="3">
+        <v>2.0192616E7</v>
+      </c>
+      <c r="E775" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F775" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G775" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H775" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I775" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J775" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2">
+        <v>45550.91074251157</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D776" s="3">
+        <v>2.0246603E7</v>
+      </c>
+      <c r="E776" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F776" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G776" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H776" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I776" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J776" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2">
+        <v>45550.91325557871</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D777" s="3">
+        <v>2.0242753E7</v>
+      </c>
+      <c r="E777" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F777" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G777" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H777" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I777" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J777" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2">
+        <v>45550.91413207176</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D778" s="3">
+        <v>2.0222326E7</v>
+      </c>
+      <c r="E778" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F778" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G778" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H778" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I778" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J778" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2">
+        <v>45550.91582836806</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D779" s="3">
+        <v>2.0243826E7</v>
+      </c>
+      <c r="E779" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F779" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G779" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H779" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I779" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J779" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2">
+        <v>45550.91695403935</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D780" s="3">
+        <v>2.022352E7</v>
+      </c>
+      <c r="E780" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F780" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G780" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H780" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I780" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J780" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
